--- a/data/Orcus - Companions.xlsx
+++ b/data/Orcus - Companions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Obsidian\Tabletop games\d20 System or D&amp;D-esque\2021 Orcus - 4E clone\GitHub\orcus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB43F923-A6FC-4901-9A15-CFEAE6D3FE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8241F946-7856-40E4-AE5E-59E25AFB7CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/Orcus - Companions.xlsx
+++ b/data/Orcus - Companions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Obsidian\Tabletop games\d20 System or D&amp;D-esque\2021 Orcus - 4E clone\GitHub\orcus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8241F946-7856-40E4-AE5E-59E25AFB7CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7618434-9D95-476B-AF5B-C901F11FF23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -923,9 +923,6 @@
     <t>Giant Snake</t>
   </si>
   <si>
-    <t>A venomous snake. Could also be a poisonous spider, toad or gila monster.</t>
-  </si>
-  <si>
     <t>Giant Lizard</t>
   </si>
   <si>
@@ -941,9 +938,6 @@
     <t>Bull</t>
   </si>
   <si>
-    <t xml:space="preserve">A bull, buffalo, cow or yak. Could also be used for a boar. </t>
-  </si>
-  <si>
     <t>Bear</t>
   </si>
   <si>
@@ -1125,6 +1119,14 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>A bull, buffalo, cow or yak. Could also be used for a boar. 
+&lt;figure&gt;&lt;img src="pics\LuigiCastellani_IMPALEDHUNTER.png" alt="Impaled Hunter by Luigi Castellani" style="zoom: 100%;" /&gt;&lt;figcaption&gt;Impaled Hunter by Luigi Castellani&lt;/figcaption&gt;&lt;/figure&gt;</t>
+  </si>
+  <si>
+    <t>A venomous snake. Could also be a poisonous spider, toad or gila monster.
+&lt;figure&gt;&lt;img src="pics\IanMacLean_COILEDSNAKE.png" alt="Coiled Snake by Ian MacLean" style="zoom: 33%;" /&gt;&lt;figcaption&gt;Coiled Snake by Ian MacLean&lt;/figcaption&gt;&lt;/figure&gt;</t>
   </si>
 </sst>
 </file>
@@ -1608,9 +1610,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1969,3552 +1975,3555 @@
   <dimension ref="A1:CK34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AC23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="BQ29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK34" sqref="AK34:AU34"/>
+      <selection pane="bottomRight" activeCell="CK29" sqref="CK29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BH1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BI1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BK1" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BL1" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BM1" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BN1" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BO1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BP1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BR1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BS1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BT1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BU1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BV1" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BW1" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BX1" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BY1" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CA1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CB1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CC1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CD1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CE1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CF1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CG1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CH1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CI1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CK1" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I2" t="s">
-        <v>250</v>
-      </c>
-      <c r="J2" t="s">
-        <v>250</v>
-      </c>
-      <c r="K2" t="s">
-        <v>250</v>
-      </c>
-      <c r="L2" t="s">
-        <v>250</v>
-      </c>
-      <c r="M2" t="s">
-        <v>250</v>
-      </c>
-      <c r="N2" t="s">
-        <v>250</v>
-      </c>
-      <c r="O2" t="s">
-        <v>250</v>
-      </c>
-      <c r="P2" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>250</v>
-      </c>
-      <c r="R2" t="s">
-        <v>250</v>
-      </c>
-      <c r="S2" t="s">
-        <v>250</v>
-      </c>
-      <c r="T2" t="s">
-        <v>250</v>
-      </c>
-      <c r="U2" t="s">
-        <v>250</v>
-      </c>
-      <c r="V2" t="s">
-        <v>250</v>
-      </c>
-      <c r="W2" t="s">
-        <v>250</v>
-      </c>
-      <c r="X2" t="s">
-        <v>250</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>250</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>250</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>250</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>250</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>250</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>250</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>250</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>250</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>250</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>250</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>250</v>
-      </c>
-      <c r="CK2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BP2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BR2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BS2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BT2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BU2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BW2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="CA2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="CB2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="CC2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="CD2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="CE2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="CF2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="CG2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="CH2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="CI2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="CJ2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="CK2" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="W4" t="s">
-        <v>338</v>
-      </c>
-      <c r="Y4" t="s">
+      <c r="W4" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AE4" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF4" t="s">
+      <c r="AE4" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AH4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AK4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AL4" t="s">
-        <v>328</v>
-      </c>
-      <c r="AM4" t="s">
+      <c r="AL4" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AM4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AN4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AO4" t="s">
-        <v>344</v>
-      </c>
-      <c r="AP4" t="s">
+      <c r="AO4" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AP4" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AQ4" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AS4" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AV4" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="AX4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD4" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="AW4" t="s">
-        <v>351</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>352</v>
-      </c>
-      <c r="BG4" t="s">
+      <c r="BG4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BO4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CB4" t="s">
-        <v>357</v>
+      <c r="CB4" s="2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T5" t="s">
-        <v>337</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="T5" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="W5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Z5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AB5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AC5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AE5" t="s">
-        <v>320</v>
-      </c>
-      <c r="AF5" t="s">
+      <c r="AE5" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="AF5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AH5" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ5" t="s">
+      <c r="AH5" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AK5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AL5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AM5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AN5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AO5" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AP5" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AQ5" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AS5" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AV5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BD5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CB5" t="s">
-        <v>357</v>
+      <c r="CB5" s="2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>310</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Y6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="Z6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AA6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AB6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AC6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AE6" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF6" t="s">
+      <c r="AE6" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF6" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AH6" t="s">
-        <v>323</v>
-      </c>
-      <c r="AJ6" t="s">
+      <c r="AH6" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AK6" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AL6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AM6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AN6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AO6" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AP6" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AQ6" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AR6" t="s">
-        <v>346</v>
-      </c>
-      <c r="AS6" t="s">
+      <c r="AR6" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="AS6" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AV6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BD6" t="s">
-        <v>324</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>357</v>
+      <c r="BD6" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="CB6" s="2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>310</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C7" t="s">
-        <v>334</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>5</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="2">
         <v>8</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Y7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="Z7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AA7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AB7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AC7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AE7" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF7" t="s">
+      <c r="AE7" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AH7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AJ7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AK7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AL7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AM7" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AN7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AO7" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AP7" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AQ7" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AS7" t="s">
-        <v>347</v>
-      </c>
-      <c r="AV7" t="s">
+      <c r="AS7" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AV7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BD7" t="s">
-        <v>325</v>
-      </c>
-      <c r="CB7" t="s">
-        <v>357</v>
+      <c r="BD7" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="CB7" s="2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C8" t="s">
-        <v>333</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>9</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH8" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="Y8" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA8" t="s">
+      <c r="AJ8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AM8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AE8" t="s">
-        <v>320</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>341</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM8" t="s">
+      <c r="AS8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV8" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AW8" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="AX8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AS8" t="s">
-        <v>120</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>350</v>
-      </c>
-      <c r="AW8" t="s">
+      <c r="BD8" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="AX8" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>353</v>
-      </c>
-      <c r="BG8" t="s">
+      <c r="BG8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BO8" t="s">
+      <c r="BO8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CB8" t="s">
-        <v>357</v>
+      <c r="CB8" s="2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C9" t="s">
-        <v>333</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>9</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K9" t="s">
-        <v>336</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="K9" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="2">
         <v>6</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Y9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Z9" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AA9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AB9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AE9" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF9" t="s">
+      <c r="AE9" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AH9" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AV9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BD9" t="s">
-        <v>326</v>
-      </c>
-      <c r="CB9" t="s">
-        <v>357</v>
+      <c r="BD9" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="CB9" s="2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>310</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C10" t="s">
-        <v>333</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>9</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Y10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Z10" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AA10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AB10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AC10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AE10" t="s">
-        <v>320</v>
-      </c>
-      <c r="AF10" t="s">
+      <c r="AE10" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="AF10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AH10" t="s">
-        <v>343</v>
-      </c>
-      <c r="AJ10" t="s">
+      <c r="AH10" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AK10" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AL10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AM10" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AN10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AO10" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AP10" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AQ10" t="s">
+      <c r="AQ10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AS10" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AV10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BD10" t="s">
-        <v>327</v>
-      </c>
-      <c r="CB10" t="s">
-        <v>357</v>
+      <c r="BD10" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="CB10" s="2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>310</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C11" t="s">
-        <v>333</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>15</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="W11" t="s">
+      <c r="W11" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Y11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Z11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AA11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AB11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AC11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AD11" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AE11" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AF11" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AH11" t="s">
-        <v>340</v>
-      </c>
-      <c r="AJ11" t="s">
+      <c r="AH11" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AK11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AL11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AM11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AN11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AO11" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AP11" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AQ11" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AR11" t="s">
-        <v>346</v>
-      </c>
-      <c r="AS11" t="s">
+      <c r="AR11" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="AS11" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AV11" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BD11" t="s">
+      <c r="BD11" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="CB11" t="s">
-        <v>357</v>
+      <c r="CB11" s="2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>310</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C12" t="s">
-        <v>333</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>19</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W12" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Y12" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Z12" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AA12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AB12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AE12" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF12" t="s">
+      <c r="AE12" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AH12" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AJ12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AK12" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AL12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AM12" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AN12" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AO12" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AP12" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AQ12" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AS12" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AV12" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AW12" t="s">
+      <c r="AW12" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AX12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY12" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="AX12" t="s">
-        <v>131</v>
-      </c>
-      <c r="AY12" t="s">
-        <v>330</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>345</v>
-      </c>
-      <c r="BA12" t="s">
+      <c r="AZ12" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="BA12" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="BB12" t="s">
+      <c r="BB12" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="BD12" t="s">
-        <v>331</v>
-      </c>
-      <c r="BG12" t="s">
+      <c r="BD12" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="BG12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BO12" t="s">
+      <c r="BO12" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="CB12" t="s">
-        <v>357</v>
+      <c r="CB12" s="2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>310</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="2">
+        <v>19</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13">
-        <v>19</v>
-      </c>
-      <c r="I13" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" t="s">
-        <v>335</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="L13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="2">
         <v>8</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Y13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Z13" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AA13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AB13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AE13" t="s">
-        <v>319</v>
-      </c>
-      <c r="AF13" t="s">
+      <c r="AE13" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AF13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AH13" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AJ13" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AK13" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AL13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AM13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AP13" t="s">
-        <v>319</v>
-      </c>
-      <c r="AQ13" t="s">
+      <c r="AP13" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AS13" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AV13" t="s">
+      <c r="AV13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BD13" t="s">
+      <c r="BD13" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="CB13" t="s">
-        <v>357</v>
+      <c r="CB13" s="2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>310</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C14" t="s">
-        <v>333</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>19</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="2">
         <v>6</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Y14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Z14" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AA14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AB14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AE14" t="s">
-        <v>320</v>
-      </c>
-      <c r="AF14" t="s">
+      <c r="AE14" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="AF14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AH14" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AJ14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AK14" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AL14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AM14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AN14" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AP14" t="s">
-        <v>316</v>
-      </c>
-      <c r="AQ14" t="s">
+      <c r="AP14" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AS14" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="AV14" t="s">
+      <c r="AV14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BD14" t="s">
+      <c r="BD14" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="CB14" t="s">
-        <v>357</v>
+      <c r="CB14" s="2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>310</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C15" t="s">
-        <v>333</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>25</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="2">
         <v>8</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Y15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Z15" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AA15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AB15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AE15" t="s">
-        <v>320</v>
-      </c>
-      <c r="AF15" t="s">
+      <c r="AE15" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="AF15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AH15" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AJ15" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AK15" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AL15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AM15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AS15" t="s">
-        <v>349</v>
-      </c>
-      <c r="AV15" t="s">
+      <c r="AS15" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="AV15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BD15" t="s">
+      <c r="BD15" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="CB15" t="s">
-        <v>357</v>
+      <c r="CB15" s="2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="2">
+        <v>29</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH16" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AL16" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO16" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AP16" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AS16" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="AV16" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AW16" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY16" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD16" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" t="s">
-        <v>333</v>
-      </c>
-      <c r="D16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16">
-        <v>29</v>
-      </c>
-      <c r="I16" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" t="s">
-        <v>172</v>
-      </c>
-      <c r="K16" t="s">
-        <v>173</v>
-      </c>
-      <c r="L16" t="s">
-        <v>100</v>
-      </c>
-      <c r="N16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O16" t="s">
-        <v>174</v>
-      </c>
-      <c r="T16" t="s">
-        <v>175</v>
-      </c>
-      <c r="U16" t="s">
-        <v>140</v>
-      </c>
-      <c r="W16" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>178</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>257</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>255</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>179</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>180</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>332</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>261</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>253</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>322</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>181</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>182</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>83</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>183</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>312</v>
-      </c>
-      <c r="BG16" t="s">
-        <v>313</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>328</v>
-      </c>
-      <c r="BI16" t="s">
+      <c r="BG16" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="BH16" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="BI16" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="BJ16" t="s">
+      <c r="BJ16" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="BK16" t="s">
+      <c r="BK16" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="BO16" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="BR16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BZ16" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="CB16" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>356</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>88</v>
-      </c>
-      <c r="BZ16" t="s">
-        <v>185</v>
-      </c>
-      <c r="CB16" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>310</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C17" t="s">
-        <v>333</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <v>29</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="2">
         <v>8</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Y17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="Z17" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AA17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AB17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AC17" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AD17" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AE17" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AF17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AH17" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AJ17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AK17" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AL17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AM17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AN17" t="s">
+      <c r="AN17" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AS17" t="s">
-        <v>348</v>
-      </c>
-      <c r="AV17" t="s">
+      <c r="AS17" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AV17" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AW17" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AX17" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="BD17" t="s">
+      <c r="BD17" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="BG17" t="s">
+      <c r="BG17" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="BH17" t="s">
+      <c r="BH17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="BI17" t="s">
+      <c r="BI17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="BJ17" t="s">
+      <c r="BJ17" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BK17" t="s">
+      <c r="BK17" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="BL17" t="s">
+      <c r="BL17" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="BM17" t="s">
+      <c r="BM17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="BO17" t="s">
-        <v>354</v>
-      </c>
-      <c r="BR17" t="s">
+      <c r="BO17" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="BR17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BZ17" t="s">
+      <c r="BZ17" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="CB17" t="s">
-        <v>357</v>
+      <c r="CB17" s="2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C19" t="s">
-        <v>315</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B19" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="W19" t="s">
+      <c r="W19" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Y19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Z19" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AA19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AB19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AE19" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF19" t="s">
+      <c r="AE19" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AH19" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AJ19" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AK19" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="AL19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AM19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AN19" t="s">
+      <c r="AN19" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AO19" t="s">
+      <c r="AO19" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="AP19" t="s">
+      <c r="AP19" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="AQ19" t="s">
+      <c r="AQ19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AS19" t="s">
+      <c r="AS19" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="CC19" t="s">
+      <c r="CC19" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="CD19">
+      <c r="CD19" s="2">
         <v>16</v>
       </c>
-      <c r="CE19">
+      <c r="CE19" s="2">
         <v>12</v>
       </c>
-      <c r="CF19">
+      <c r="CF19" s="2">
         <v>14</v>
       </c>
-      <c r="CG19">
+      <c r="CG19" s="2">
         <v>2</v>
       </c>
-      <c r="CH19">
+      <c r="CH19" s="2">
         <v>14</v>
       </c>
-      <c r="CI19">
+      <c r="CI19" s="2">
         <v>10</v>
       </c>
-      <c r="CK19" t="s">
-        <v>308</v>
+      <c r="CK19" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B20" t="s">
-        <v>306</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="W20" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE20" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20" t="s">
-        <v>210</v>
-      </c>
-      <c r="I20" t="s">
-        <v>198</v>
-      </c>
-      <c r="J20" t="s">
-        <v>199</v>
-      </c>
-      <c r="L20" t="s">
-        <v>100</v>
-      </c>
-      <c r="N20" t="s">
-        <v>77</v>
-      </c>
-      <c r="O20" t="s">
-        <v>211</v>
-      </c>
-      <c r="P20" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>201</v>
-      </c>
-      <c r="R20" t="s">
-        <v>212</v>
-      </c>
-      <c r="W20">
-        <v>5</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE20" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AF20" t="s">
+      <c r="AF20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AH20" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="CC20" t="s">
+      <c r="CC20" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="CD20">
+      <c r="CD20" s="2">
         <v>16</v>
       </c>
-      <c r="CE20">
+      <c r="CE20" s="2">
         <v>12</v>
       </c>
-      <c r="CF20">
+      <c r="CF20" s="2">
         <v>14</v>
       </c>
-      <c r="CG20">
+      <c r="CG20" s="2">
         <v>2</v>
       </c>
-      <c r="CH20">
+      <c r="CH20" s="2">
         <v>14</v>
       </c>
-      <c r="CI20">
+      <c r="CI20" s="2">
         <v>10</v>
       </c>
-      <c r="CK20" t="s">
-        <v>307</v>
+      <c r="CK20" s="2" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B21" t="s">
-        <v>304</v>
-      </c>
-      <c r="C21" t="s">
-        <v>315</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B21" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R21" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="2">
         <v>5</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Y21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Z21" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AA21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AB21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AE21" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AF21" t="s">
+      <c r="AE21" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AH21" t="s">
+      <c r="AH21" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AK21" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="AS21" t="s">
+      <c r="AS21" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="CC21" t="s">
+      <c r="CC21" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="CD21">
+      <c r="CD21" s="2">
         <v>16</v>
       </c>
-      <c r="CE21">
+      <c r="CE21" s="2">
         <v>14</v>
       </c>
-      <c r="CF21">
+      <c r="CF21" s="2">
         <v>14</v>
       </c>
-      <c r="CG21">
+      <c r="CG21" s="2">
         <v>2</v>
       </c>
-      <c r="CH21">
+      <c r="CH21" s="2">
         <v>12</v>
       </c>
-      <c r="CI21">
+      <c r="CI21" s="2">
         <v>10</v>
       </c>
-      <c r="CK21" t="s">
-        <v>305</v>
+      <c r="CK21" s="2" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C22" t="s">
-        <v>315</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q22" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="2">
         <v>7</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Y22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Z22" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AA22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AB22" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AE22" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF22" t="s">
+      <c r="AE22" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AH22" t="s">
+      <c r="AH22" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AK22" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="AS22" t="s">
+      <c r="AS22" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="CC22" t="s">
+      <c r="CC22" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="CD22">
+      <c r="CD22" s="2">
         <v>14</v>
       </c>
-      <c r="CE22">
+      <c r="CE22" s="2">
         <v>16</v>
       </c>
-      <c r="CF22">
+      <c r="CF22" s="2">
         <v>12</v>
       </c>
-      <c r="CG22">
+      <c r="CG22" s="2">
         <v>2</v>
       </c>
-      <c r="CH22">
+      <c r="CH22" s="2">
         <v>14</v>
       </c>
-      <c r="CI22">
+      <c r="CI22" s="2">
         <v>10</v>
       </c>
-      <c r="CK22" t="s">
+      <c r="CK22" s="2" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C23" t="s">
-        <v>315</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q23" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R23" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="W23" t="s">
+      <c r="W23" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Y23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Z23" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AA23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AB23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AE23" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF23" t="s">
+      <c r="AE23" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AH23" t="s">
+      <c r="AH23" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AK23" t="s">
+      <c r="AK23" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AS23" t="s">
+      <c r="AS23" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="CC23" t="s">
+      <c r="CC23" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="CD23">
+      <c r="CD23" s="2">
         <v>14</v>
       </c>
-      <c r="CE23">
+      <c r="CE23" s="2">
         <v>16</v>
       </c>
-      <c r="CF23">
+      <c r="CF23" s="2">
         <v>14</v>
       </c>
-      <c r="CG23">
+      <c r="CG23" s="2">
         <v>2</v>
       </c>
-      <c r="CH23">
+      <c r="CH23" s="2">
         <v>12</v>
       </c>
-      <c r="CI23">
+      <c r="CI23" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B24" t="s">
-        <v>302</v>
-      </c>
-      <c r="C24" t="s">
-        <v>315</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="B24" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q24" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R24" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="2">
         <v>6</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Y24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Z24" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AA24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AB24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AE24" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF24" t="s">
+      <c r="AE24" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AH24" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AK24" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="AS24" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="CC24" t="s">
+      <c r="CC24" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="CD24">
+      <c r="CD24" s="2">
         <v>16</v>
       </c>
-      <c r="CE24">
+      <c r="CE24" s="2">
         <v>12</v>
       </c>
-      <c r="CF24">
+      <c r="CF24" s="2">
         <v>14</v>
       </c>
-      <c r="CG24">
+      <c r="CG24" s="2">
         <v>2</v>
       </c>
-      <c r="CH24">
+      <c r="CH24" s="2">
         <v>14</v>
       </c>
-      <c r="CI24">
+      <c r="CI24" s="2">
         <v>10</v>
       </c>
-      <c r="CK24" t="s">
-        <v>303</v>
+      <c r="CK24" s="2" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C25" t="s">
-        <v>315</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q25" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R25" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="W25" t="s">
+      <c r="W25" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Y25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Z25" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AA25" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AB25" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AE25" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF25" t="s">
+      <c r="AE25" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AH25" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="CD25">
+      <c r="CD25" s="2">
         <v>14</v>
       </c>
-      <c r="CE25">
+      <c r="CE25" s="2">
         <v>16</v>
       </c>
-      <c r="CF25">
+      <c r="CF25" s="2">
         <v>12</v>
       </c>
-      <c r="CG25">
+      <c r="CG25" s="2">
         <v>2</v>
       </c>
-      <c r="CH25">
+      <c r="CH25" s="2">
         <v>14</v>
       </c>
-      <c r="CI25">
+      <c r="CI25" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE26" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH26" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="CC26" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="CD26" s="2">
+        <v>14</v>
+      </c>
+      <c r="CE26" s="2">
+        <v>16</v>
+      </c>
+      <c r="CF26" s="2">
+        <v>12</v>
+      </c>
+      <c r="CG26" s="2">
+        <v>2</v>
+      </c>
+      <c r="CH26" s="2">
+        <v>14</v>
+      </c>
+      <c r="CI26" s="2">
+        <v>10</v>
+      </c>
+      <c r="CK26" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="C26" t="s">
-        <v>315</v>
-      </c>
-      <c r="D26" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" t="s">
-        <v>197</v>
-      </c>
-      <c r="F26" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" t="s">
-        <v>198</v>
-      </c>
-      <c r="J26" t="s">
-        <v>75</v>
-      </c>
-      <c r="L26" t="s">
-        <v>100</v>
-      </c>
-      <c r="N26" t="s">
-        <v>77</v>
-      </c>
-      <c r="O26" t="s">
-        <v>200</v>
-      </c>
-      <c r="P26" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>200</v>
-      </c>
-      <c r="R26" t="s">
-        <v>201</v>
-      </c>
-      <c r="W26" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE26" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>223</v>
-      </c>
-      <c r="CC26" t="s">
-        <v>237</v>
-      </c>
-      <c r="CD26">
-        <v>14</v>
-      </c>
-      <c r="CE26">
-        <v>16</v>
-      </c>
-      <c r="CF26">
-        <v>12</v>
-      </c>
-      <c r="CG26">
-        <v>2</v>
-      </c>
-      <c r="CH26">
-        <v>14</v>
-      </c>
-      <c r="CI26">
-        <v>10</v>
-      </c>
-      <c r="CK26" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE27" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH27" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="CC27" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="CD27" s="2">
+        <v>14</v>
+      </c>
+      <c r="CE27" s="2">
+        <v>16</v>
+      </c>
+      <c r="CF27" s="2">
+        <v>12</v>
+      </c>
+      <c r="CG27" s="2">
+        <v>2</v>
+      </c>
+      <c r="CH27" s="2">
+        <v>14</v>
+      </c>
+      <c r="CI27" s="2">
+        <v>10</v>
+      </c>
+      <c r="CK27" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:89" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE28" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" t="s">
-        <v>197</v>
-      </c>
-      <c r="F27" t="s">
-        <v>110</v>
-      </c>
-      <c r="I27" t="s">
-        <v>198</v>
-      </c>
-      <c r="J27" t="s">
-        <v>199</v>
-      </c>
-      <c r="L27" t="s">
-        <v>100</v>
-      </c>
-      <c r="N27" t="s">
-        <v>77</v>
-      </c>
-      <c r="O27" t="s">
-        <v>200</v>
-      </c>
-      <c r="P27" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>200</v>
-      </c>
-      <c r="R27" t="s">
-        <v>202</v>
-      </c>
-      <c r="W27" t="s">
-        <v>235</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE27" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF27" t="s">
+      <c r="AF28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AH27" t="s">
-        <v>234</v>
-      </c>
-      <c r="CC27" t="s">
-        <v>236</v>
-      </c>
-      <c r="CD27">
-        <v>14</v>
-      </c>
-      <c r="CE27">
+      <c r="AH28" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK28" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS28" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="CC28" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="CD28" s="2">
         <v>16</v>
       </c>
-      <c r="CF27">
+      <c r="CE28" s="2">
+        <v>16</v>
+      </c>
+      <c r="CF28" s="2">
         <v>12</v>
       </c>
-      <c r="CG27">
+      <c r="CG28" s="2">
         <v>2</v>
       </c>
-      <c r="CH27">
-        <v>14</v>
-      </c>
-      <c r="CI27">
+      <c r="CH28" s="2">
+        <v>12</v>
+      </c>
+      <c r="CI28" s="2">
         <v>10</v>
       </c>
-      <c r="CK27" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="28" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>196</v>
-      </c>
-      <c r="B28" t="s">
-        <v>296</v>
-      </c>
-      <c r="C28" t="s">
-        <v>315</v>
-      </c>
-      <c r="D28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" t="s">
-        <v>197</v>
-      </c>
-      <c r="F28" t="s">
-        <v>110</v>
-      </c>
-      <c r="I28" t="s">
-        <v>198</v>
-      </c>
-      <c r="J28" t="s">
-        <v>199</v>
-      </c>
-      <c r="L28" t="s">
-        <v>100</v>
-      </c>
-      <c r="N28" t="s">
-        <v>77</v>
-      </c>
-      <c r="O28" t="s">
-        <v>202</v>
-      </c>
-      <c r="P28" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>200</v>
-      </c>
-      <c r="R28" t="s">
-        <v>202</v>
-      </c>
-      <c r="W28" t="s">
-        <v>238</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE28" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>223</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>314</v>
-      </c>
-      <c r="CC28" t="s">
-        <v>240</v>
-      </c>
-      <c r="CD28">
-        <v>16</v>
-      </c>
-      <c r="CE28">
-        <v>16</v>
-      </c>
-      <c r="CF28">
-        <v>12</v>
-      </c>
-      <c r="CG28">
-        <v>2</v>
-      </c>
-      <c r="CH28">
-        <v>12</v>
-      </c>
-      <c r="CI28">
-        <v>10</v>
-      </c>
-      <c r="CK28" t="s">
-        <v>297</v>
+      <c r="CK28" s="1" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C29" t="s">
-        <v>315</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="Q29" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="R29" t="s">
+      <c r="R29" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="2">
         <v>6</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Y29" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Z29" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AA29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AB29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AE29" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF29" t="s">
+      <c r="AE29" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AH29" t="s">
+      <c r="AH29" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="CC29" t="s">
+      <c r="CC29" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="CD29">
+      <c r="CD29" s="2">
         <v>16</v>
       </c>
-      <c r="CE29">
+      <c r="CE29" s="2">
         <v>12</v>
       </c>
-      <c r="CF29">
+      <c r="CF29" s="2">
         <v>14</v>
       </c>
-      <c r="CG29">
+      <c r="CG29" s="2">
         <v>2</v>
       </c>
-      <c r="CH29">
+      <c r="CH29" s="2">
         <v>14</v>
       </c>
-      <c r="CI29">
+      <c r="CI29" s="2">
         <v>10</v>
       </c>
-      <c r="CK29" t="s">
+      <c r="CK29" s="2" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="W30" s="2">
+        <v>8</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE30" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" t="s">
-        <v>197</v>
-      </c>
-      <c r="F30" t="s">
-        <v>110</v>
-      </c>
-      <c r="I30" t="s">
-        <v>198</v>
-      </c>
-      <c r="J30" t="s">
-        <v>199</v>
-      </c>
-      <c r="L30" t="s">
-        <v>100</v>
-      </c>
-      <c r="N30" t="s">
-        <v>77</v>
-      </c>
-      <c r="O30" t="s">
-        <v>202</v>
-      </c>
-      <c r="P30" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>202</v>
-      </c>
-      <c r="R30" t="s">
-        <v>202</v>
-      </c>
-      <c r="W30">
-        <v>8</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE30" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AF30" t="s">
+      <c r="AF30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AH30" t="s">
+      <c r="AH30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AK30" t="s">
+      <c r="AK30" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="AS30" t="s">
+      <c r="AS30" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="CC30" t="s">
+      <c r="CC30" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="CD30">
+      <c r="CD30" s="2">
         <v>14</v>
       </c>
-      <c r="CE30">
+      <c r="CE30" s="2">
         <v>16</v>
       </c>
-      <c r="CF30">
+      <c r="CF30" s="2">
         <v>14</v>
       </c>
-      <c r="CG30">
+      <c r="CG30" s="2">
         <v>2</v>
       </c>
-      <c r="CH30">
+      <c r="CH30" s="2">
         <v>12</v>
       </c>
-      <c r="CI30">
+      <c r="CI30" s="2">
         <v>10</v>
       </c>
-      <c r="CK30" t="s">
+      <c r="CK30" s="2" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE31" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" t="s">
-        <v>197</v>
-      </c>
-      <c r="F31" t="s">
-        <v>110</v>
-      </c>
-      <c r="I31" t="s">
-        <v>198</v>
-      </c>
-      <c r="J31" t="s">
-        <v>75</v>
-      </c>
-      <c r="L31" t="s">
-        <v>100</v>
-      </c>
-      <c r="N31" t="s">
-        <v>77</v>
-      </c>
-      <c r="O31" t="s">
-        <v>200</v>
-      </c>
-      <c r="P31" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>200</v>
-      </c>
-      <c r="R31" t="s">
-        <v>201</v>
-      </c>
-      <c r="W31" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA31" t="s">
+      <c r="AF31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH31" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK31" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AB31" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE31" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AF31" t="s">
+      <c r="AM31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO31" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP31" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AQ31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AH31" t="s">
-        <v>223</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>241</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>131</v>
-      </c>
-      <c r="AO31" t="s">
-        <v>257</v>
-      </c>
-      <c r="AP31" t="s">
-        <v>251</v>
-      </c>
-      <c r="AQ31" t="s">
+      <c r="AS31" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="CC31" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="CD31" s="2">
         <v>14</v>
       </c>
-      <c r="AS31" t="s">
-        <v>242</v>
-      </c>
-      <c r="CC31" t="s">
-        <v>237</v>
-      </c>
-      <c r="CD31">
+      <c r="CE31" s="2">
+        <v>16</v>
+      </c>
+      <c r="CF31" s="2">
+        <v>12</v>
+      </c>
+      <c r="CG31" s="2">
+        <v>2</v>
+      </c>
+      <c r="CH31" s="2">
         <v>14</v>
       </c>
-      <c r="CE31">
-        <v>16</v>
-      </c>
-      <c r="CF31">
-        <v>12</v>
-      </c>
-      <c r="CG31">
-        <v>2</v>
-      </c>
-      <c r="CH31">
-        <v>14</v>
-      </c>
-      <c r="CI31">
+      <c r="CI31" s="2">
         <v>10</v>
       </c>
-      <c r="CK31" t="s">
-        <v>321</v>
+      <c r="CK31" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>311</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="A32" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE32" s="1"/>
+      <c r="AE32" s="3"/>
     </row>
     <row r="33" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>311</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="A33" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="2">
         <v>9</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="W33">
+      <c r="W33" s="2">
         <v>6</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Y33" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Z33" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="AA33" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AB33" t="s">
+      <c r="AB33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AC33" t="s">
+      <c r="AC33" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AE33" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF33" t="s">
+      <c r="AE33" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AH33" t="s">
+      <c r="AH33" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AJ33" t="s">
+      <c r="AJ33" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AK33" t="s">
+      <c r="AK33" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AL33" t="s">
-        <v>329</v>
-      </c>
-      <c r="AM33" t="s">
+      <c r="AL33" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="AM33" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AN33" t="s">
+      <c r="AN33" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AP33" t="s">
-        <v>320</v>
-      </c>
-      <c r="AQ33" t="s">
+      <c r="AP33" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="AQ33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AS33" t="s">
+      <c r="AS33" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="BG33" t="s">
+      <c r="BG33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BO33" t="s">
+      <c r="BO33" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>311</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="A34" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D34" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" t="s">
-        <v>197</v>
-      </c>
-      <c r="F34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="L34" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W34" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z34" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC34" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE34" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH34" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="I34" t="s">
+      <c r="CC34" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="CD34" s="2">
+        <v>12</v>
+      </c>
+      <c r="CE34" s="2">
+        <v>12</v>
+      </c>
+      <c r="CF34" s="2">
+        <v>10</v>
+      </c>
+      <c r="CG34" s="2">
+        <v>10</v>
+      </c>
+      <c r="CH34" s="2">
+        <v>8</v>
+      </c>
+      <c r="CI34" s="2">
+        <v>10</v>
+      </c>
+      <c r="CJ34" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="L34" t="s">
-        <v>364</v>
-      </c>
-      <c r="N34" t="s">
-        <v>77</v>
-      </c>
-      <c r="O34" t="s">
-        <v>78</v>
-      </c>
-      <c r="W34">
-        <v>6</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>318</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>361</v>
-      </c>
-      <c r="CC34" t="s">
-        <v>363</v>
-      </c>
-      <c r="CD34">
-        <v>12</v>
-      </c>
-      <c r="CE34">
-        <v>12</v>
-      </c>
-      <c r="CF34">
-        <v>10</v>
-      </c>
-      <c r="CG34">
-        <v>10</v>
-      </c>
-      <c r="CH34">
-        <v>8</v>
-      </c>
-      <c r="CI34">
-        <v>10</v>
-      </c>
-      <c r="CJ34" t="s">
-        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/data/Orcus - Companions.xlsx
+++ b/data/Orcus - Companions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Obsidian\Tabletop games\d20 System or D&amp;D-esque\2021 Orcus - 4E clone\GitHub\orcus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFE961D-30B2-48C8-AA58-114817739BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4266335-7609-4014-A33B-02FBA1E234F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,6 @@
     <sheet name="Orcus - Companions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -611,9 +601,6 @@
     <t>Psychic, Charm</t>
   </si>
   <si>
-    <t xml:space="preserve">At the end of your turn, if the marilith has not received a command that turn, it uses *three whirling swords* against an adjacent target. If there is no such target, it uses *beguiling gaze*. </t>
-  </si>
-  <si>
     <t>Animal Companions</t>
   </si>
   <si>
@@ -956,9 +943,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>If a creature is killed within the balor’s aura, the balor’s summoner regains a recovery and the balor heals equal to your recovery value.</t>
-  </si>
-  <si>
     <t>Fallen Angel’s Reckoning</t>
   </si>
   <si>
@@ -990,9 +974,6 @@
   </si>
   <si>
     <t>At the end of your turn, if the burner demon has not received a command that turn, it makes a *quick flicking fire* attack against the nearest square occupied by a creature.</t>
-  </si>
-  <si>
-    <t>At the end of your turn, if the hellhound has not received a command that turn, it charges its quarry if within charging distance, otherwise it runs towards the quarry.</t>
   </si>
   <si>
     <t>At the end of your turn, if the hungry maw has not received a command that turn, it attacks a random creature within reach or moves towards the nearest creature if none are within reach.</t>
@@ -1168,6 +1149,15 @@
   <si>
     <t>A venomous snake. Could also be a poisonous spider, toad or Gila monster.
 &lt;figure&gt;&lt;img src="pics\IanMacLean_COILEDSNAKE.png" alt="Coiled Snake by Ian MacLean" style="zoom: 33%;" /&gt;&lt;figcaption&gt;Coiled Snake by Ian MacLean&lt;/figcaption&gt;&lt;/figure&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the end of your turn, if the hellhound has not received a command that turn, it charges its quarry if within charging distance, otherwise it runs towards the quarry. If its quarry is not in line of sight, the hellhound attacks or charges the nearest creature. </t>
+  </si>
+  <si>
+    <t>If a non-mook creature is killed within the balor’s aura, the balor’s summoner regains a recovery and the balor heals equal to your recovery value.</t>
+  </si>
+  <si>
+    <t>At the end of your turn, if the marilith has not received a command that turn, it uses *three whirling swords* against an adjacent target. If there is no such target, it uses *beguiling gaze* against the nearest creature in range.</t>
   </si>
 </sst>
 </file>
@@ -2029,10 +2019,10 @@
   <dimension ref="A1:CK34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="CA25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="BN9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CI28" sqref="CI28"/>
+      <selection pane="bottomRight" activeCell="BZ17" sqref="BZ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2126,16 +2116,16 @@
         <v>28</v>
       </c>
       <c r="AD1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AH1" t="s">
         <v>29</v>
@@ -2159,16 +2149,16 @@
         <v>35</v>
       </c>
       <c r="AO1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AP1" t="s">
         <v>263</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>264</v>
       </c>
-      <c r="AQ1" t="s">
-        <v>265</v>
-      </c>
       <c r="AR1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AS1" t="s">
         <v>36</v>
@@ -2192,16 +2182,16 @@
         <v>42</v>
       </c>
       <c r="AZ1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BA1" t="s">
         <v>268</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>269</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>270</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>271</v>
       </c>
       <c r="BD1" t="s">
         <v>43</v>
@@ -2225,16 +2215,16 @@
         <v>49</v>
       </c>
       <c r="BK1" t="s">
+        <v>277</v>
+      </c>
+      <c r="BL1" t="s">
         <v>278</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>279</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>280</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>281</v>
       </c>
       <c r="BO1" t="s">
         <v>50</v>
@@ -2258,16 +2248,16 @@
         <v>56</v>
       </c>
       <c r="BV1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BW1" t="s">
         <v>282</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>283</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>284</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>285</v>
       </c>
       <c r="BZ1" t="s">
         <v>57</v>
@@ -2308,272 +2298,272 @@
     </row>
     <row r="2" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Y2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Z2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AB2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AC2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AD2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AE2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AI2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AL2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AM2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AN2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AO2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AP2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AS2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AT2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AU2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AV2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AW2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AX2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AY2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AZ2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BA2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BB2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BC2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BD2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BE2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BF2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BG2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BH2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BI2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BJ2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BL2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BO2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BP2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BQ2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BR2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BS2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BT2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BU2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BW2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BZ2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CA2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CB2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CC2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CD2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CE2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CF2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CG2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CH2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CI2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CJ2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CK2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="CK3" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D4" t="s">
         <v>70</v>
@@ -2609,7 +2599,7 @@
         <v>79</v>
       </c>
       <c r="W4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Y4" t="s">
         <v>80</v>
@@ -2627,7 +2617,7 @@
         <v>84</v>
       </c>
       <c r="AE4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF4" t="s">
         <v>14</v>
@@ -2642,7 +2632,7 @@
         <v>87</v>
       </c>
       <c r="AL4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AM4" t="s">
         <v>83</v>
@@ -2651,28 +2641,28 @@
         <v>84</v>
       </c>
       <c r="AO4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AP4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AQ4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AS4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AV4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AW4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AX4" t="s">
         <v>83</v>
       </c>
       <c r="BD4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="BG4" t="s">
         <v>88</v>
@@ -2681,18 +2671,18 @@
         <v>89</v>
       </c>
       <c r="CB4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B5" t="s">
         <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D5" t="s">
         <v>70</v>
@@ -2728,7 +2718,7 @@
         <v>78</v>
       </c>
       <c r="T5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="W5" t="s">
         <v>93</v>
@@ -2749,13 +2739,13 @@
         <v>84</v>
       </c>
       <c r="AE5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AF5" t="s">
         <v>14</v>
       </c>
       <c r="AH5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AJ5" t="s">
         <v>86</v>
@@ -2773,16 +2763,16 @@
         <v>84</v>
       </c>
       <c r="AO5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AP5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AQ5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AS5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AV5" t="s">
         <v>88</v>
@@ -2791,18 +2781,18 @@
         <v>96</v>
       </c>
       <c r="CB5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6" t="s">
         <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D6" t="s">
         <v>98</v>
@@ -2859,13 +2849,13 @@
         <v>105</v>
       </c>
       <c r="AE6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AH6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AJ6" t="s">
         <v>106</v>
@@ -2883,16 +2873,16 @@
         <v>105</v>
       </c>
       <c r="AO6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AP6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AQ6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AR6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AS6" t="s">
         <v>108</v>
@@ -2901,21 +2891,21 @@
         <v>88</v>
       </c>
       <c r="BD6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="CB6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B7" t="s">
         <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D7" t="s">
         <v>98</v>
@@ -2972,7 +2962,7 @@
         <v>105</v>
       </c>
       <c r="AE7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF7" t="s">
         <v>14</v>
@@ -2996,36 +2986,36 @@
         <v>105</v>
       </c>
       <c r="AO7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AP7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AQ7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AS7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AV7" t="s">
         <v>88</v>
       </c>
       <c r="BD7" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="CB7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B8" t="s">
         <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D8" t="s">
         <v>115</v>
@@ -3061,7 +3051,7 @@
         <v>78</v>
       </c>
       <c r="W8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Y8" t="s">
         <v>80</v>
@@ -3076,13 +3066,13 @@
         <v>83</v>
       </c>
       <c r="AE8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AF8" t="s">
         <v>14</v>
       </c>
       <c r="AH8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AJ8" t="s">
         <v>118</v>
@@ -3100,16 +3090,16 @@
         <v>120</v>
       </c>
       <c r="AV8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AW8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AX8" t="s">
         <v>83</v>
       </c>
       <c r="BD8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="BG8" t="s">
         <v>88</v>
@@ -3118,18 +3108,18 @@
         <v>121</v>
       </c>
       <c r="CB8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D9" t="s">
         <v>98</v>
@@ -3153,7 +3143,7 @@
         <v>75</v>
       </c>
       <c r="K9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L9" t="s">
         <v>100</v>
@@ -3180,7 +3170,7 @@
         <v>83</v>
       </c>
       <c r="AE9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF9" t="s">
         <v>14</v>
@@ -3192,21 +3182,21 @@
         <v>88</v>
       </c>
       <c r="BD9" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="CB9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B10" t="s">
         <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D10" t="s">
         <v>115</v>
@@ -3257,13 +3247,13 @@
         <v>84</v>
       </c>
       <c r="AE10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AF10" t="s">
         <v>14</v>
       </c>
       <c r="AH10" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AJ10" t="s">
         <v>86</v>
@@ -3281,36 +3271,36 @@
         <v>128</v>
       </c>
       <c r="AO10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AP10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AQ10" t="s">
         <v>17</v>
       </c>
       <c r="AS10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AV10" t="s">
         <v>88</v>
       </c>
       <c r="BD10" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="CB10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B11" t="s">
         <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D11" t="s">
         <v>115</v>
@@ -3367,16 +3357,16 @@
         <v>105</v>
       </c>
       <c r="AD11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AH11" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AJ11" t="s">
         <v>106</v>
@@ -3394,16 +3384,16 @@
         <v>105</v>
       </c>
       <c r="AO11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AP11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AQ11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AR11" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AS11" t="s">
         <v>142</v>
@@ -3412,21 +3402,21 @@
         <v>88</v>
       </c>
       <c r="BD11" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="CB11" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B12" t="s">
         <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D12" t="s">
         <v>115</v>
@@ -3474,7 +3464,7 @@
         <v>83</v>
       </c>
       <c r="AE12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF12" t="s">
         <v>14</v>
@@ -3498,40 +3488,40 @@
         <v>148</v>
       </c>
       <c r="AO12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AP12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AQ12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AS12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AV12" t="s">
         <v>149</v>
       </c>
       <c r="AW12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AX12" t="s">
         <v>131</v>
       </c>
       <c r="AY12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AZ12" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="BA12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BB12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BD12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="BG12" t="s">
         <v>88</v>
@@ -3540,18 +3530,18 @@
         <v>150</v>
       </c>
       <c r="CB12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B13" t="s">
         <v>151</v>
       </c>
       <c r="C13" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D13" t="s">
         <v>98</v>
@@ -3575,7 +3565,7 @@
         <v>75</v>
       </c>
       <c r="K13" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L13" t="s">
         <v>100</v>
@@ -3602,7 +3592,7 @@
         <v>83</v>
       </c>
       <c r="AE13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AF13" t="s">
         <v>14</v>
@@ -3623,7 +3613,7 @@
         <v>83</v>
       </c>
       <c r="AP13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AQ13" t="s">
         <v>14</v>
@@ -3638,18 +3628,18 @@
         <v>156</v>
       </c>
       <c r="CB13" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B14" t="s">
         <v>157</v>
       </c>
       <c r="C14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D14" t="s">
         <v>158</v>
@@ -3697,7 +3687,7 @@
         <v>83</v>
       </c>
       <c r="AE14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AF14" t="s">
         <v>14</v>
@@ -3721,16 +3711,16 @@
         <v>162</v>
       </c>
       <c r="AO14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AP14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AQ14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AS14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AV14" t="s">
         <v>88</v>
@@ -3739,18 +3729,18 @@
         <v>163</v>
       </c>
       <c r="CB14" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B15" t="s">
         <v>164</v>
       </c>
       <c r="C15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D15" t="s">
         <v>115</v>
@@ -3801,7 +3791,7 @@
         <v>83</v>
       </c>
       <c r="AE15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AF15" t="s">
         <v>14</v>
@@ -3822,7 +3812,7 @@
         <v>83</v>
       </c>
       <c r="AS15" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AV15" t="s">
         <v>88</v>
@@ -3831,18 +3821,18 @@
         <v>169</v>
       </c>
       <c r="CB15" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B16" t="s">
         <v>170</v>
       </c>
       <c r="C16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D16" t="s">
         <v>115</v>
@@ -3902,10 +3892,10 @@
         <v>177</v>
       </c>
       <c r="AD16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF16" t="s">
         <v>14</v>
@@ -3920,7 +3910,7 @@
         <v>179</v>
       </c>
       <c r="AL16" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AM16" t="s">
         <v>83</v>
@@ -3929,16 +3919,16 @@
         <v>105</v>
       </c>
       <c r="AO16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AP16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AQ16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AS16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AV16" t="s">
         <v>180</v>
@@ -3947,19 +3937,19 @@
         <v>181</v>
       </c>
       <c r="AX16" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="AY16" t="s">
         <v>182</v>
       </c>
       <c r="BD16" t="s">
-        <v>308</v>
+        <v>364</v>
       </c>
       <c r="BG16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BH16" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="BI16" t="s">
         <v>131</v>
@@ -3968,10 +3958,10 @@
         <v>183</v>
       </c>
       <c r="BK16" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="BO16" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="BR16" t="s">
         <v>88</v>
@@ -3980,18 +3970,18 @@
         <v>184</v>
       </c>
       <c r="CB16" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B17" t="s">
         <v>185</v>
       </c>
       <c r="C17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D17" t="s">
         <v>115</v>
@@ -4045,10 +4035,10 @@
         <v>188</v>
       </c>
       <c r="AD17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF17" t="s">
         <v>14</v>
@@ -4072,7 +4062,7 @@
         <v>188</v>
       </c>
       <c r="AS17" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AV17" t="s">
         <v>190</v>
@@ -4084,7 +4074,7 @@
         <v>131</v>
       </c>
       <c r="BD17" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="BG17" t="s">
         <v>191</v>
@@ -4099,62 +4089,62 @@
         <v>192</v>
       </c>
       <c r="BK17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="BL17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BM17" t="s">
         <v>17</v>
       </c>
       <c r="BO17" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="BR17" t="s">
         <v>88</v>
       </c>
       <c r="BZ17" t="s">
-        <v>193</v>
+        <v>365</v>
       </c>
       <c r="CB17" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
       </c>
       <c r="CK18" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D19" t="s">
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F19" t="s">
         <v>110</v>
       </c>
       <c r="I19" t="s">
+        <v>195</v>
+      </c>
+      <c r="J19" t="s">
         <v>196</v>
-      </c>
-      <c r="J19" t="s">
-        <v>197</v>
       </c>
       <c r="L19" t="s">
         <v>100</v>
@@ -4163,25 +4153,25 @@
         <v>77</v>
       </c>
       <c r="O19" t="s">
+        <v>197</v>
+      </c>
+      <c r="P19" t="s">
         <v>198</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>199</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
+        <v>197</v>
+      </c>
+      <c r="W19" t="s">
         <v>200</v>
-      </c>
-      <c r="R19" t="s">
-        <v>198</v>
-      </c>
-      <c r="W19" t="s">
-        <v>201</v>
       </c>
       <c r="Y19" t="s">
         <v>80</v>
       </c>
       <c r="Z19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA19" t="s">
         <v>82</v>
@@ -4190,19 +4180,19 @@
         <v>83</v>
       </c>
       <c r="AE19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF19" t="s">
         <v>14</v>
       </c>
       <c r="AH19" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>204</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AK19" t="s">
         <v>205</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>206</v>
       </c>
       <c r="AL19" t="s">
         <v>82</v>
@@ -4214,19 +4204,19 @@
         <v>188</v>
       </c>
       <c r="AO19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AP19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AQ19" t="s">
         <v>14</v>
       </c>
       <c r="AS19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CC19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="CD19">
         <v>16</v>
@@ -4247,33 +4237,33 @@
         <v>10</v>
       </c>
       <c r="CK19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D20" t="s">
         <v>70</v>
       </c>
       <c r="E20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" t="s">
+        <v>207</v>
+      </c>
+      <c r="I20" t="s">
         <v>195</v>
       </c>
-      <c r="F20" t="s">
-        <v>208</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>196</v>
-      </c>
-      <c r="J20" t="s">
-        <v>197</v>
       </c>
       <c r="L20" t="s">
         <v>100</v>
@@ -4282,16 +4272,16 @@
         <v>77</v>
       </c>
       <c r="O20" t="s">
+        <v>208</v>
+      </c>
+      <c r="P20" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>198</v>
+      </c>
+      <c r="R20" t="s">
         <v>209</v>
-      </c>
-      <c r="P20" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>199</v>
-      </c>
-      <c r="R20" t="s">
-        <v>210</v>
       </c>
       <c r="W20">
         <v>5</v>
@@ -4300,7 +4290,7 @@
         <v>80</v>
       </c>
       <c r="Z20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AA20" t="s">
         <v>82</v>
@@ -4312,16 +4302,16 @@
         <v>188</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AF20" t="s">
         <v>14</v>
       </c>
       <c r="AH20" t="s">
+        <v>211</v>
+      </c>
+      <c r="CC20" t="s">
         <v>212</v>
-      </c>
-      <c r="CC20" t="s">
-        <v>213</v>
       </c>
       <c r="CD20">
         <v>16</v>
@@ -4342,33 +4332,33 @@
         <v>10</v>
       </c>
       <c r="CK20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D21" t="s">
         <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F21" t="s">
         <v>110</v>
       </c>
       <c r="I21" t="s">
+        <v>195</v>
+      </c>
+      <c r="J21" t="s">
         <v>196</v>
-      </c>
-      <c r="J21" t="s">
-        <v>197</v>
       </c>
       <c r="L21" t="s">
         <v>100</v>
@@ -4377,16 +4367,16 @@
         <v>77</v>
       </c>
       <c r="O21" t="s">
+        <v>197</v>
+      </c>
+      <c r="P21" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q21" t="s">
         <v>198</v>
       </c>
-      <c r="P21" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>199</v>
-      </c>
-      <c r="R21" t="s">
-        <v>200</v>
       </c>
       <c r="W21">
         <v>5</v>
@@ -4395,7 +4385,7 @@
         <v>80</v>
       </c>
       <c r="Z21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AA21" t="s">
         <v>82</v>
@@ -4404,22 +4394,22 @@
         <v>83</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AF21" t="s">
         <v>14</v>
       </c>
       <c r="AH21" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK21" t="s">
         <v>215</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AS21" t="s">
         <v>216</v>
       </c>
-      <c r="AS21" t="s">
+      <c r="CC21" t="s">
         <v>217</v>
-      </c>
-      <c r="CC21" t="s">
-        <v>218</v>
       </c>
       <c r="CD21">
         <v>16</v>
@@ -4440,33 +4430,33 @@
         <v>10</v>
       </c>
       <c r="CK21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C22" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D22" t="s">
         <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F22" t="s">
         <v>110</v>
       </c>
       <c r="I22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" t="s">
         <v>196</v>
-      </c>
-      <c r="J22" t="s">
-        <v>197</v>
       </c>
       <c r="L22" t="s">
         <v>100</v>
@@ -4475,16 +4465,16 @@
         <v>77</v>
       </c>
       <c r="O22" t="s">
+        <v>197</v>
+      </c>
+      <c r="P22" t="s">
         <v>198</v>
       </c>
-      <c r="P22" t="s">
-        <v>199</v>
-      </c>
       <c r="Q22" t="s">
+        <v>197</v>
+      </c>
+      <c r="R22" t="s">
         <v>198</v>
-      </c>
-      <c r="R22" t="s">
-        <v>199</v>
       </c>
       <c r="W22">
         <v>7</v>
@@ -4493,7 +4483,7 @@
         <v>80</v>
       </c>
       <c r="Z22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AA22" t="s">
         <v>82</v>
@@ -4502,22 +4492,22 @@
         <v>83</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF22" t="s">
         <v>14</v>
       </c>
       <c r="AH22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AK22" t="s">
+        <v>245</v>
+      </c>
+      <c r="AS22" t="s">
         <v>246</v>
       </c>
-      <c r="AS22" t="s">
-        <v>247</v>
-      </c>
       <c r="CC22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="CD22">
         <v>14</v>
@@ -4538,18 +4528,18 @@
         <v>10</v>
       </c>
       <c r="CK22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D23" t="s">
         <v>98</v>
@@ -4561,10 +4551,10 @@
         <v>110</v>
       </c>
       <c r="I23" t="s">
+        <v>195</v>
+      </c>
+      <c r="J23" t="s">
         <v>196</v>
-      </c>
-      <c r="J23" t="s">
-        <v>197</v>
       </c>
       <c r="L23" t="s">
         <v>100</v>
@@ -4573,25 +4563,25 @@
         <v>77</v>
       </c>
       <c r="O23" t="s">
+        <v>197</v>
+      </c>
+      <c r="P23" t="s">
         <v>198</v>
       </c>
-      <c r="P23" t="s">
-        <v>199</v>
-      </c>
       <c r="Q23" t="s">
+        <v>197</v>
+      </c>
+      <c r="R23" t="s">
         <v>198</v>
       </c>
-      <c r="R23" t="s">
-        <v>199</v>
-      </c>
       <c r="W23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Y23" t="s">
         <v>80</v>
       </c>
       <c r="Z23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AA23" t="s">
         <v>82</v>
@@ -4600,22 +4590,22 @@
         <v>83</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF23" t="s">
         <v>14</v>
       </c>
       <c r="AH23" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK23" t="s">
         <v>221</v>
       </c>
-      <c r="AK23" t="s">
+      <c r="AS23" t="s">
         <v>222</v>
       </c>
-      <c r="AS23" t="s">
+      <c r="CC23" t="s">
         <v>223</v>
-      </c>
-      <c r="CC23" t="s">
-        <v>224</v>
       </c>
       <c r="CD23">
         <v>14</v>
@@ -4638,28 +4628,28 @@
     </row>
     <row r="24" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C24" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D24" t="s">
         <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F24" t="s">
         <v>110</v>
       </c>
       <c r="I24" t="s">
+        <v>195</v>
+      </c>
+      <c r="J24" t="s">
         <v>196</v>
-      </c>
-      <c r="J24" t="s">
-        <v>197</v>
       </c>
       <c r="L24" t="s">
         <v>100</v>
@@ -4668,16 +4658,16 @@
         <v>77</v>
       </c>
       <c r="O24" t="s">
+        <v>197</v>
+      </c>
+      <c r="P24" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q24" t="s">
         <v>198</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
         <v>198</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>199</v>
-      </c>
-      <c r="R24" t="s">
-        <v>199</v>
       </c>
       <c r="W24">
         <v>6</v>
@@ -4686,7 +4676,7 @@
         <v>80</v>
       </c>
       <c r="Z24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AA24" t="s">
         <v>82</v>
@@ -4695,22 +4685,22 @@
         <v>83</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF24" t="s">
         <v>14</v>
       </c>
       <c r="AH24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK24" t="s">
+        <v>225</v>
+      </c>
+      <c r="AS24" t="s">
         <v>226</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="CC24" t="s">
         <v>227</v>
-      </c>
-      <c r="CC24" t="s">
-        <v>228</v>
       </c>
       <c r="CD24">
         <v>16</v>
@@ -4731,33 +4721,33 @@
         <v>10</v>
       </c>
       <c r="CK24" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C25" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D25" t="s">
         <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F25" t="s">
         <v>110</v>
       </c>
       <c r="I25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s">
         <v>100</v>
@@ -4766,25 +4756,25 @@
         <v>77</v>
       </c>
       <c r="O25" t="s">
+        <v>197</v>
+      </c>
+      <c r="P25" t="s">
         <v>198</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
+        <v>197</v>
+      </c>
+      <c r="R25" t="s">
         <v>199</v>
       </c>
-      <c r="Q25" t="s">
-        <v>198</v>
-      </c>
-      <c r="R25" t="s">
-        <v>200</v>
-      </c>
       <c r="W25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y25" t="s">
         <v>80</v>
       </c>
       <c r="Z25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AA25" t="s">
         <v>82</v>
@@ -4793,13 +4783,13 @@
         <v>83</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF25" t="s">
         <v>14</v>
       </c>
       <c r="AH25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="CD25">
         <v>14</v>
@@ -4822,25 +4812,25 @@
     </row>
     <row r="26" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C26" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D26" t="s">
         <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F26" t="s">
         <v>110</v>
       </c>
       <c r="I26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J26" t="s">
         <v>75</v>
@@ -4852,25 +4842,25 @@
         <v>77</v>
       </c>
       <c r="O26" t="s">
+        <v>197</v>
+      </c>
+      <c r="P26" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>197</v>
+      </c>
+      <c r="R26" t="s">
         <v>198</v>
       </c>
-      <c r="P26" t="s">
+      <c r="W26" t="s">
         <v>200</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>198</v>
-      </c>
-      <c r="R26" t="s">
-        <v>199</v>
-      </c>
-      <c r="W26" t="s">
-        <v>201</v>
       </c>
       <c r="Y26" t="s">
         <v>80</v>
       </c>
       <c r="Z26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AA26" t="s">
         <v>82</v>
@@ -4879,16 +4869,16 @@
         <v>83</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AF26" t="s">
         <v>14</v>
       </c>
       <c r="AH26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="CC26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="CD26">
         <v>14</v>
@@ -4909,33 +4899,33 @@
         <v>10</v>
       </c>
       <c r="CK26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C27" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D27" t="s">
         <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F27" t="s">
         <v>110</v>
       </c>
       <c r="I27" t="s">
+        <v>195</v>
+      </c>
+      <c r="J27" t="s">
         <v>196</v>
-      </c>
-      <c r="J27" t="s">
-        <v>197</v>
       </c>
       <c r="L27" t="s">
         <v>100</v>
@@ -4944,19 +4934,19 @@
         <v>77</v>
       </c>
       <c r="O27" t="s">
+        <v>197</v>
+      </c>
+      <c r="P27" t="s">
         <v>198</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
+        <v>197</v>
+      </c>
+      <c r="R27" t="s">
         <v>199</v>
       </c>
-      <c r="Q27" t="s">
-        <v>198</v>
-      </c>
-      <c r="R27" t="s">
-        <v>200</v>
-      </c>
       <c r="W27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Y27" t="s">
         <v>80</v>
@@ -4971,16 +4961,16 @@
         <v>83</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF27" t="s">
         <v>14</v>
       </c>
       <c r="AH27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="CC27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="CD27">
         <v>14</v>
@@ -5001,33 +4991,33 @@
         <v>10</v>
       </c>
       <c r="CK27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C28" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D28" t="s">
         <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F28" t="s">
         <v>110</v>
       </c>
       <c r="I28" t="s">
+        <v>195</v>
+      </c>
+      <c r="J28" t="s">
         <v>196</v>
-      </c>
-      <c r="J28" t="s">
-        <v>197</v>
       </c>
       <c r="L28" t="s">
         <v>100</v>
@@ -5036,25 +5026,25 @@
         <v>77</v>
       </c>
       <c r="O28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P28" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>197</v>
+      </c>
+      <c r="R28" t="s">
         <v>199</v>
       </c>
-      <c r="Q28" t="s">
-        <v>198</v>
-      </c>
-      <c r="R28" t="s">
-        <v>200</v>
-      </c>
       <c r="W28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y28" t="s">
         <v>80</v>
       </c>
       <c r="Z28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AA28" t="s">
         <v>82</v>
@@ -5063,22 +5053,22 @@
         <v>83</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AF28" t="s">
         <v>14</v>
       </c>
       <c r="AH28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK28" t="s">
+        <v>236</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>308</v>
+      </c>
+      <c r="CC28" t="s">
         <v>237</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>310</v>
-      </c>
-      <c r="CC28" t="s">
-        <v>238</v>
       </c>
       <c r="CD28">
         <v>16</v>
@@ -5099,30 +5089,30 @@
         <v>10</v>
       </c>
       <c r="CK28" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C29" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D29" t="s">
         <v>115</v>
       </c>
       <c r="E29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F29" t="s">
         <v>110</v>
       </c>
       <c r="I29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L29" t="s">
         <v>100</v>
@@ -5131,16 +5121,16 @@
         <v>77</v>
       </c>
       <c r="O29" t="s">
+        <v>197</v>
+      </c>
+      <c r="P29" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q29" t="s">
         <v>198</v>
       </c>
-      <c r="P29" t="s">
+      <c r="R29" t="s">
         <v>198</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>199</v>
-      </c>
-      <c r="R29" t="s">
-        <v>199</v>
       </c>
       <c r="W29">
         <v>6</v>
@@ -5149,7 +5139,7 @@
         <v>80</v>
       </c>
       <c r="Z29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA29" t="s">
         <v>82</v>
@@ -5158,16 +5148,16 @@
         <v>83</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF29" t="s">
         <v>14</v>
       </c>
       <c r="AH29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="CC29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="CD29">
         <v>16</v>
@@ -5188,33 +5178,33 @@
         <v>10</v>
       </c>
       <c r="CK29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C30" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D30" t="s">
         <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F30" t="s">
         <v>110</v>
       </c>
       <c r="I30" t="s">
+        <v>195</v>
+      </c>
+      <c r="J30" t="s">
         <v>196</v>
-      </c>
-      <c r="J30" t="s">
-        <v>197</v>
       </c>
       <c r="L30" t="s">
         <v>100</v>
@@ -5223,16 +5213,16 @@
         <v>77</v>
       </c>
       <c r="O30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W30">
         <v>8</v>
@@ -5241,7 +5231,7 @@
         <v>80</v>
       </c>
       <c r="Z30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AA30" t="s">
         <v>82</v>
@@ -5250,22 +5240,22 @@
         <v>83</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AF30" t="s">
         <v>14</v>
       </c>
       <c r="AH30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK30" t="s">
+        <v>242</v>
+      </c>
+      <c r="AS30" t="s">
         <v>243</v>
       </c>
-      <c r="AS30" t="s">
+      <c r="CC30" t="s">
         <v>244</v>
-      </c>
-      <c r="CC30" t="s">
-        <v>245</v>
       </c>
       <c r="CD30">
         <v>14</v>
@@ -5286,30 +5276,30 @@
         <v>10</v>
       </c>
       <c r="CK30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C31" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D31" t="s">
         <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F31" t="s">
         <v>110</v>
       </c>
       <c r="I31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J31" t="s">
         <v>75</v>
@@ -5321,25 +5311,25 @@
         <v>77</v>
       </c>
       <c r="O31" t="s">
+        <v>197</v>
+      </c>
+      <c r="P31" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>197</v>
+      </c>
+      <c r="R31" t="s">
         <v>198</v>
       </c>
-      <c r="P31" t="s">
+      <c r="W31" t="s">
         <v>200</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>198</v>
-      </c>
-      <c r="R31" t="s">
-        <v>199</v>
-      </c>
-      <c r="W31" t="s">
-        <v>201</v>
       </c>
       <c r="Y31" t="s">
         <v>80</v>
       </c>
       <c r="Z31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AA31" t="s">
         <v>82</v>
@@ -5348,19 +5338,19 @@
         <v>83</v>
       </c>
       <c r="AE31" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AF31" t="s">
         <v>14</v>
       </c>
       <c r="AH31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AJ31" t="s">
         <v>118</v>
       </c>
       <c r="AK31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AL31" t="s">
         <v>82</v>
@@ -5369,19 +5359,19 @@
         <v>131</v>
       </c>
       <c r="AO31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AP31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AQ31" t="s">
         <v>14</v>
       </c>
       <c r="AS31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="CC31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="CD31">
         <v>14</v>
@@ -5402,12 +5392,12 @@
         <v>10</v>
       </c>
       <c r="CK31" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
@@ -5416,7 +5406,7 @@
     </row>
     <row r="33" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B33" t="s">
         <v>125</v>
@@ -5464,7 +5454,7 @@
         <v>128</v>
       </c>
       <c r="AE33" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF33" t="s">
         <v>14</v>
@@ -5479,7 +5469,7 @@
         <v>130</v>
       </c>
       <c r="AL33" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AM33" t="s">
         <v>131</v>
@@ -5488,13 +5478,13 @@
         <v>132</v>
       </c>
       <c r="AP33" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AQ33" t="s">
         <v>17</v>
       </c>
       <c r="AS33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BG33" t="s">
         <v>88</v>
@@ -5505,28 +5495,28 @@
     </row>
     <row r="34" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D34" t="s">
         <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F34" t="s">
         <v>91</v>
       </c>
       <c r="G34" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I34" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L34" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N34" t="s">
         <v>77</v>
@@ -5553,16 +5543,16 @@
         <v>188</v>
       </c>
       <c r="AE34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AF34" t="s">
         <v>14</v>
       </c>
       <c r="AH34" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="CC34" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="CD34">
         <v>12</v>
@@ -5583,7 +5573,7 @@
         <v>10</v>
       </c>
       <c r="CJ34" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
